--- a/TA buku/Results/AMBIENCE.xlsx
+++ b/TA buku/Results/AMBIENCE.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="456" uniqueCount="344">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="460" uniqueCount="348">
   <si>
     <t>id</t>
   </si>
@@ -610,13 +610,13 @@
     <t>kills</t>
   </si>
   <si>
-    <t>relaxed</t>
+    <t>stylish</t>
   </si>
   <si>
     <t>nice</t>
   </si>
   <si>
-    <t>top</t>
+    <t>-|-|-</t>
   </si>
   <si>
     <t>small</t>
@@ -667,7 +667,7 @@
     <t>delightful</t>
   </si>
   <si>
-    <t>like</t>
+    <t>dark</t>
   </si>
   <si>
     <t>good|hang</t>
@@ -688,6 +688,12 @@
     <t>fun</t>
   </si>
   <si>
+    <t>-|-</t>
+  </si>
+  <si>
+    <t>-</t>
+  </si>
+  <si>
     <t>special|special|nothing</t>
   </si>
   <si>
@@ -760,6 +766,9 @@
     <t>attractive|attractive</t>
   </si>
   <si>
+    <t>indoor</t>
+  </si>
+  <si>
     <t>simple</t>
   </si>
   <si>
@@ -767,6 +776,9 @@
   </si>
   <si>
     <t>love</t>
+  </si>
+  <si>
+    <t>-|-|-|-</t>
   </si>
   <si>
     <t>positive</t>
@@ -1440,10 +1452,10 @@
         <v>187</v>
       </c>
       <c r="E2" t="s">
-        <v>251</v>
+        <v>255</v>
       </c>
       <c r="F2" t="s">
-        <v>253</v>
+        <v>257</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -1460,10 +1472,10 @@
         <v>188</v>
       </c>
       <c r="E3" t="s">
-        <v>251</v>
+        <v>255</v>
       </c>
       <c r="F3" t="s">
-        <v>254</v>
+        <v>258</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -1480,10 +1492,10 @@
         <v>189</v>
       </c>
       <c r="E4" t="s">
-        <v>251</v>
+        <v>255</v>
       </c>
       <c r="F4" t="s">
-        <v>255</v>
+        <v>259</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -1500,10 +1512,10 @@
         <v>190</v>
       </c>
       <c r="E5" t="s">
-        <v>251</v>
+        <v>255</v>
       </c>
       <c r="F5" t="s">
-        <v>256</v>
+        <v>260</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -1520,10 +1532,10 @@
         <v>191</v>
       </c>
       <c r="E6" t="s">
-        <v>251</v>
+        <v>255</v>
       </c>
       <c r="F6" t="s">
-        <v>257</v>
+        <v>261</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -1540,10 +1552,10 @@
         <v>192</v>
       </c>
       <c r="E7" t="s">
-        <v>251</v>
+        <v>255</v>
       </c>
       <c r="F7" t="s">
-        <v>258</v>
+        <v>262</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -1560,10 +1572,10 @@
         <v>193</v>
       </c>
       <c r="E8" t="s">
-        <v>251</v>
+        <v>255</v>
       </c>
       <c r="F8" t="s">
-        <v>259</v>
+        <v>263</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -1580,10 +1592,10 @@
         <v>194</v>
       </c>
       <c r="E9" t="s">
-        <v>251</v>
+        <v>255</v>
       </c>
       <c r="F9" t="s">
-        <v>260</v>
+        <v>264</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -1600,10 +1612,10 @@
         <v>195</v>
       </c>
       <c r="E10" t="s">
-        <v>251</v>
+        <v>255</v>
       </c>
       <c r="F10" t="s">
-        <v>261</v>
+        <v>265</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -1620,10 +1632,10 @@
         <v>196</v>
       </c>
       <c r="E11" t="s">
-        <v>252</v>
+        <v>256</v>
       </c>
       <c r="F11" t="s">
-        <v>262</v>
+        <v>266</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -1640,10 +1652,10 @@
         <v>197</v>
       </c>
       <c r="E12" t="s">
-        <v>252</v>
+        <v>256</v>
       </c>
       <c r="F12" t="s">
-        <v>263</v>
+        <v>267</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -1660,10 +1672,10 @@
         <v>198</v>
       </c>
       <c r="E13" t="s">
-        <v>251</v>
+        <v>255</v>
       </c>
       <c r="F13" t="s">
-        <v>264</v>
+        <v>268</v>
       </c>
     </row>
     <row r="14" spans="1:6">
@@ -1680,10 +1692,10 @@
         <v>199</v>
       </c>
       <c r="E14" t="s">
-        <v>251</v>
+        <v>255</v>
       </c>
       <c r="F14" t="s">
-        <v>265</v>
+        <v>269</v>
       </c>
     </row>
     <row r="15" spans="1:6">
@@ -1700,10 +1712,10 @@
         <v>200</v>
       </c>
       <c r="E15" t="s">
-        <v>251</v>
+        <v>255</v>
       </c>
       <c r="F15" t="s">
-        <v>266</v>
+        <v>270</v>
       </c>
     </row>
     <row r="16" spans="1:6">
@@ -1720,10 +1732,10 @@
         <v>201</v>
       </c>
       <c r="E16" t="s">
-        <v>251</v>
+        <v>255</v>
       </c>
       <c r="F16" t="s">
-        <v>267</v>
+        <v>271</v>
       </c>
     </row>
     <row r="17" spans="1:6">
@@ -1740,10 +1752,10 @@
         <v>202</v>
       </c>
       <c r="E17" t="s">
-        <v>251</v>
+        <v>255</v>
       </c>
       <c r="F17" t="s">
-        <v>268</v>
+        <v>272</v>
       </c>
     </row>
     <row r="18" spans="1:6">
@@ -1760,10 +1772,10 @@
         <v>203</v>
       </c>
       <c r="E18" t="s">
-        <v>251</v>
+        <v>255</v>
       </c>
       <c r="F18" t="s">
-        <v>269</v>
+        <v>273</v>
       </c>
     </row>
     <row r="19" spans="1:6">
@@ -1780,10 +1792,10 @@
         <v>204</v>
       </c>
       <c r="E19" t="s">
-        <v>251</v>
+        <v>255</v>
       </c>
       <c r="F19" t="s">
-        <v>270</v>
+        <v>274</v>
       </c>
     </row>
     <row r="20" spans="1:6">
@@ -1800,10 +1812,10 @@
         <v>205</v>
       </c>
       <c r="E20" t="s">
-        <v>251</v>
+        <v>255</v>
       </c>
       <c r="F20" t="s">
-        <v>271</v>
+        <v>275</v>
       </c>
     </row>
     <row r="21" spans="1:6">
@@ -1820,10 +1832,10 @@
         <v>206</v>
       </c>
       <c r="E21" t="s">
-        <v>251</v>
+        <v>255</v>
       </c>
       <c r="F21" t="s">
-        <v>272</v>
+        <v>276</v>
       </c>
     </row>
     <row r="22" spans="1:6">
@@ -1840,10 +1852,10 @@
         <v>207</v>
       </c>
       <c r="E22" t="s">
-        <v>251</v>
+        <v>255</v>
       </c>
       <c r="F22" t="s">
-        <v>273</v>
+        <v>277</v>
       </c>
     </row>
     <row r="23" spans="1:6">
@@ -1860,10 +1872,10 @@
         <v>208</v>
       </c>
       <c r="E23" t="s">
-        <v>251</v>
+        <v>255</v>
       </c>
       <c r="F23" t="s">
-        <v>274</v>
+        <v>278</v>
       </c>
     </row>
     <row r="24" spans="1:6">
@@ -1880,10 +1892,10 @@
         <v>209</v>
       </c>
       <c r="E24" t="s">
-        <v>251</v>
+        <v>255</v>
       </c>
       <c r="F24" t="s">
-        <v>275</v>
+        <v>279</v>
       </c>
     </row>
     <row r="25" spans="1:6">
@@ -1900,10 +1912,10 @@
         <v>210</v>
       </c>
       <c r="E25" t="s">
-        <v>251</v>
+        <v>255</v>
       </c>
       <c r="F25" t="s">
-        <v>276</v>
+        <v>280</v>
       </c>
     </row>
     <row r="26" spans="1:6">
@@ -1920,10 +1932,10 @@
         <v>211</v>
       </c>
       <c r="E26" t="s">
-        <v>251</v>
+        <v>255</v>
       </c>
       <c r="F26" t="s">
-        <v>277</v>
+        <v>281</v>
       </c>
     </row>
     <row r="27" spans="1:6">
@@ -1940,10 +1952,10 @@
         <v>212</v>
       </c>
       <c r="E27" t="s">
-        <v>251</v>
+        <v>255</v>
       </c>
       <c r="F27" t="s">
-        <v>278</v>
+        <v>282</v>
       </c>
     </row>
     <row r="28" spans="1:6">
@@ -1960,10 +1972,10 @@
         <v>213</v>
       </c>
       <c r="E28" t="s">
-        <v>251</v>
+        <v>255</v>
       </c>
       <c r="F28" t="s">
-        <v>279</v>
+        <v>283</v>
       </c>
     </row>
     <row r="29" spans="1:6">
@@ -1980,10 +1992,10 @@
         <v>214</v>
       </c>
       <c r="E29" t="s">
-        <v>251</v>
+        <v>255</v>
       </c>
       <c r="F29" t="s">
-        <v>280</v>
+        <v>284</v>
       </c>
     </row>
     <row r="30" spans="1:6">
@@ -2000,10 +2012,10 @@
         <v>215</v>
       </c>
       <c r="E30" t="s">
-        <v>252</v>
+        <v>256</v>
       </c>
       <c r="F30" t="s">
-        <v>281</v>
+        <v>285</v>
       </c>
     </row>
     <row r="31" spans="1:6">
@@ -2020,10 +2032,10 @@
         <v>199</v>
       </c>
       <c r="E31" t="s">
-        <v>251</v>
+        <v>255</v>
       </c>
       <c r="F31" t="s">
-        <v>282</v>
+        <v>286</v>
       </c>
     </row>
     <row r="32" spans="1:6">
@@ -2040,10 +2052,10 @@
         <v>216</v>
       </c>
       <c r="E32" t="s">
-        <v>251</v>
+        <v>255</v>
       </c>
       <c r="F32" t="s">
-        <v>283</v>
+        <v>287</v>
       </c>
     </row>
     <row r="33" spans="1:6">
@@ -2060,10 +2072,10 @@
         <v>203</v>
       </c>
       <c r="E33" t="s">
-        <v>252</v>
+        <v>256</v>
       </c>
       <c r="F33" t="s">
-        <v>284</v>
+        <v>288</v>
       </c>
     </row>
     <row r="34" spans="1:6">
@@ -2080,10 +2092,10 @@
         <v>217</v>
       </c>
       <c r="E34" t="s">
-        <v>251</v>
+        <v>255</v>
       </c>
       <c r="F34" t="s">
-        <v>285</v>
+        <v>289</v>
       </c>
     </row>
     <row r="35" spans="1:6">
@@ -2100,10 +2112,10 @@
         <v>218</v>
       </c>
       <c r="E35" t="s">
-        <v>251</v>
+        <v>255</v>
       </c>
       <c r="F35" t="s">
-        <v>286</v>
+        <v>290</v>
       </c>
     </row>
     <row r="36" spans="1:6">
@@ -2120,10 +2132,10 @@
         <v>219</v>
       </c>
       <c r="E36" t="s">
-        <v>252</v>
+        <v>256</v>
       </c>
       <c r="F36" t="s">
-        <v>287</v>
+        <v>291</v>
       </c>
     </row>
     <row r="37" spans="1:6">
@@ -2140,10 +2152,10 @@
         <v>214</v>
       </c>
       <c r="E37" t="s">
-        <v>251</v>
+        <v>255</v>
       </c>
       <c r="F37" t="s">
-        <v>288</v>
+        <v>292</v>
       </c>
     </row>
     <row r="38" spans="1:6">
@@ -2160,10 +2172,10 @@
         <v>220</v>
       </c>
       <c r="E38" t="s">
-        <v>251</v>
+        <v>255</v>
       </c>
       <c r="F38" t="s">
-        <v>289</v>
+        <v>293</v>
       </c>
     </row>
     <row r="39" spans="1:6">
@@ -2180,10 +2192,10 @@
         <v>221</v>
       </c>
       <c r="E39" t="s">
-        <v>251</v>
+        <v>255</v>
       </c>
       <c r="F39" t="s">
-        <v>290</v>
+        <v>294</v>
       </c>
     </row>
     <row r="40" spans="1:6">
@@ -2200,10 +2212,10 @@
         <v>222</v>
       </c>
       <c r="E40" t="s">
-        <v>251</v>
+        <v>255</v>
       </c>
       <c r="F40" t="s">
-        <v>291</v>
+        <v>295</v>
       </c>
     </row>
     <row r="41" spans="1:6">
@@ -2220,10 +2232,10 @@
         <v>201</v>
       </c>
       <c r="E41" t="s">
-        <v>252</v>
+        <v>256</v>
       </c>
       <c r="F41" t="s">
-        <v>292</v>
+        <v>296</v>
       </c>
     </row>
     <row r="42" spans="1:6">
@@ -2240,10 +2252,10 @@
         <v>223</v>
       </c>
       <c r="E42" t="s">
-        <v>251</v>
+        <v>255</v>
       </c>
       <c r="F42" t="s">
-        <v>293</v>
+        <v>297</v>
       </c>
     </row>
     <row r="43" spans="1:6">
@@ -2257,13 +2269,13 @@
         <v>137</v>
       </c>
       <c r="D43" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="E43" t="s">
-        <v>251</v>
+        <v>255</v>
       </c>
       <c r="F43" t="s">
-        <v>294</v>
+        <v>298</v>
       </c>
     </row>
     <row r="44" spans="1:6">
@@ -2276,11 +2288,14 @@
       <c r="C44" t="s">
         <v>138</v>
       </c>
+      <c r="D44" t="s">
+        <v>225</v>
+      </c>
       <c r="E44" t="s">
-        <v>252</v>
+        <v>256</v>
       </c>
       <c r="F44" t="s">
-        <v>295</v>
+        <v>299</v>
       </c>
     </row>
     <row r="45" spans="1:6">
@@ -2297,10 +2312,10 @@
         <v>199</v>
       </c>
       <c r="E45" t="s">
-        <v>251</v>
+        <v>255</v>
       </c>
       <c r="F45" t="s">
-        <v>296</v>
+        <v>300</v>
       </c>
     </row>
     <row r="46" spans="1:6">
@@ -2314,13 +2329,13 @@
         <v>140</v>
       </c>
       <c r="D46" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="E46" t="s">
-        <v>251</v>
+        <v>255</v>
       </c>
       <c r="F46" t="s">
-        <v>297</v>
+        <v>301</v>
       </c>
     </row>
     <row r="47" spans="1:6">
@@ -2334,13 +2349,13 @@
         <v>141</v>
       </c>
       <c r="D47" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="E47" t="s">
-        <v>251</v>
+        <v>255</v>
       </c>
       <c r="F47" t="s">
-        <v>298</v>
+        <v>302</v>
       </c>
     </row>
     <row r="48" spans="1:6">
@@ -2354,13 +2369,13 @@
         <v>142</v>
       </c>
       <c r="D48" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="E48" t="s">
-        <v>251</v>
+        <v>255</v>
       </c>
       <c r="F48" t="s">
-        <v>299</v>
+        <v>303</v>
       </c>
     </row>
     <row r="49" spans="1:6">
@@ -2377,10 +2392,10 @@
         <v>199</v>
       </c>
       <c r="E49" t="s">
-        <v>251</v>
+        <v>255</v>
       </c>
       <c r="F49" t="s">
-        <v>300</v>
+        <v>304</v>
       </c>
     </row>
     <row r="50" spans="1:6">
@@ -2394,13 +2409,13 @@
         <v>144</v>
       </c>
       <c r="D50" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="E50" t="s">
-        <v>251</v>
+        <v>255</v>
       </c>
       <c r="F50" t="s">
-        <v>301</v>
+        <v>305</v>
       </c>
     </row>
     <row r="51" spans="1:6">
@@ -2414,13 +2429,13 @@
         <v>145</v>
       </c>
       <c r="D51" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="E51" t="s">
-        <v>252</v>
+        <v>256</v>
       </c>
       <c r="F51" t="s">
-        <v>302</v>
+        <v>306</v>
       </c>
     </row>
     <row r="52" spans="1:6">
@@ -2434,13 +2449,13 @@
         <v>146</v>
       </c>
       <c r="D52" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="E52" t="s">
-        <v>251</v>
+        <v>255</v>
       </c>
       <c r="F52" t="s">
-        <v>303</v>
+        <v>307</v>
       </c>
     </row>
     <row r="53" spans="1:6">
@@ -2457,10 +2472,10 @@
         <v>203</v>
       </c>
       <c r="E53" t="s">
-        <v>251</v>
+        <v>255</v>
       </c>
       <c r="F53" t="s">
-        <v>304</v>
+        <v>308</v>
       </c>
     </row>
     <row r="54" spans="1:6">
@@ -2474,13 +2489,13 @@
         <v>148</v>
       </c>
       <c r="D54" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="E54" t="s">
-        <v>251</v>
+        <v>255</v>
       </c>
       <c r="F54" t="s">
-        <v>305</v>
+        <v>309</v>
       </c>
     </row>
     <row r="55" spans="1:6">
@@ -2497,10 +2512,10 @@
         <v>199</v>
       </c>
       <c r="E55" t="s">
-        <v>251</v>
+        <v>255</v>
       </c>
       <c r="F55" t="s">
-        <v>306</v>
+        <v>310</v>
       </c>
     </row>
     <row r="56" spans="1:6">
@@ -2514,13 +2529,13 @@
         <v>150</v>
       </c>
       <c r="D56" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="E56" t="s">
-        <v>251</v>
+        <v>255</v>
       </c>
       <c r="F56" t="s">
-        <v>307</v>
+        <v>311</v>
       </c>
     </row>
     <row r="57" spans="1:6">
@@ -2537,10 +2552,10 @@
         <v>199</v>
       </c>
       <c r="E57" t="s">
-        <v>251</v>
+        <v>255</v>
       </c>
       <c r="F57" t="s">
-        <v>308</v>
+        <v>312</v>
       </c>
     </row>
     <row r="58" spans="1:6">
@@ -2554,13 +2569,13 @@
         <v>152</v>
       </c>
       <c r="D58" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="E58" t="s">
-        <v>252</v>
+        <v>256</v>
       </c>
       <c r="F58" t="s">
-        <v>309</v>
+        <v>313</v>
       </c>
     </row>
     <row r="59" spans="1:6">
@@ -2574,13 +2589,13 @@
         <v>153</v>
       </c>
       <c r="D59" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="E59" t="s">
-        <v>251</v>
+        <v>255</v>
       </c>
       <c r="F59" t="s">
-        <v>310</v>
+        <v>314</v>
       </c>
     </row>
     <row r="60" spans="1:6">
@@ -2597,10 +2612,10 @@
         <v>203</v>
       </c>
       <c r="E60" t="s">
-        <v>251</v>
+        <v>255</v>
       </c>
       <c r="F60" t="s">
-        <v>311</v>
+        <v>315</v>
       </c>
     </row>
     <row r="61" spans="1:6">
@@ -2614,13 +2629,13 @@
         <v>155</v>
       </c>
       <c r="D61" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="E61" t="s">
-        <v>251</v>
+        <v>255</v>
       </c>
       <c r="F61" t="s">
-        <v>312</v>
+        <v>316</v>
       </c>
     </row>
     <row r="62" spans="1:6">
@@ -2634,13 +2649,13 @@
         <v>156</v>
       </c>
       <c r="D62" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="E62" t="s">
-        <v>252</v>
+        <v>256</v>
       </c>
       <c r="F62" t="s">
-        <v>313</v>
+        <v>317</v>
       </c>
     </row>
     <row r="63" spans="1:6">
@@ -2657,10 +2672,10 @@
         <v>203</v>
       </c>
       <c r="E63" t="s">
-        <v>251</v>
+        <v>255</v>
       </c>
       <c r="F63" t="s">
-        <v>314</v>
+        <v>318</v>
       </c>
     </row>
     <row r="64" spans="1:6">
@@ -2674,13 +2689,13 @@
         <v>158</v>
       </c>
       <c r="D64" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="E64" t="s">
-        <v>251</v>
+        <v>255</v>
       </c>
       <c r="F64" t="s">
-        <v>315</v>
+        <v>319</v>
       </c>
     </row>
     <row r="65" spans="1:6">
@@ -2694,13 +2709,13 @@
         <v>159</v>
       </c>
       <c r="D65" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="E65" t="s">
-        <v>251</v>
+        <v>255</v>
       </c>
       <c r="F65" t="s">
-        <v>316</v>
+        <v>320</v>
       </c>
     </row>
     <row r="66" spans="1:6">
@@ -2717,10 +2732,10 @@
         <v>212</v>
       </c>
       <c r="E66" t="s">
-        <v>251</v>
+        <v>255</v>
       </c>
       <c r="F66" t="s">
-        <v>317</v>
+        <v>321</v>
       </c>
     </row>
     <row r="67" spans="1:6">
@@ -2734,13 +2749,13 @@
         <v>161</v>
       </c>
       <c r="D67" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="E67" t="s">
-        <v>251</v>
+        <v>255</v>
       </c>
       <c r="F67" t="s">
-        <v>318</v>
+        <v>322</v>
       </c>
     </row>
     <row r="68" spans="1:6">
@@ -2754,13 +2769,13 @@
         <v>162</v>
       </c>
       <c r="D68" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="E68" t="s">
-        <v>252</v>
+        <v>256</v>
       </c>
       <c r="F68" t="s">
-        <v>319</v>
+        <v>323</v>
       </c>
     </row>
     <row r="69" spans="1:6">
@@ -2774,13 +2789,13 @@
         <v>163</v>
       </c>
       <c r="D69" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="E69" t="s">
-        <v>251</v>
+        <v>255</v>
       </c>
       <c r="F69" t="s">
-        <v>320</v>
+        <v>324</v>
       </c>
     </row>
     <row r="70" spans="1:6">
@@ -2794,13 +2809,13 @@
         <v>164</v>
       </c>
       <c r="D70" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="E70" t="s">
-        <v>251</v>
+        <v>255</v>
       </c>
       <c r="F70" t="s">
-        <v>321</v>
+        <v>325</v>
       </c>
     </row>
     <row r="71" spans="1:6">
@@ -2814,13 +2829,13 @@
         <v>165</v>
       </c>
       <c r="D71" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="E71" t="s">
-        <v>251</v>
+        <v>255</v>
       </c>
       <c r="F71" t="s">
-        <v>322</v>
+        <v>326</v>
       </c>
     </row>
     <row r="72" spans="1:6">
@@ -2834,13 +2849,13 @@
         <v>166</v>
       </c>
       <c r="D72" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="E72" t="s">
-        <v>251</v>
+        <v>255</v>
       </c>
       <c r="F72" t="s">
-        <v>323</v>
+        <v>327</v>
       </c>
     </row>
     <row r="73" spans="1:6">
@@ -2854,13 +2869,13 @@
         <v>167</v>
       </c>
       <c r="D73" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="E73" t="s">
-        <v>251</v>
+        <v>255</v>
       </c>
       <c r="F73" t="s">
-        <v>324</v>
+        <v>328</v>
       </c>
     </row>
     <row r="74" spans="1:6">
@@ -2874,13 +2889,13 @@
         <v>168</v>
       </c>
       <c r="D74" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="E74" t="s">
-        <v>251</v>
+        <v>255</v>
       </c>
       <c r="F74" t="s">
-        <v>325</v>
+        <v>329</v>
       </c>
     </row>
     <row r="75" spans="1:6">
@@ -2894,13 +2909,13 @@
         <v>169</v>
       </c>
       <c r="D75" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="E75" t="s">
-        <v>251</v>
+        <v>255</v>
       </c>
       <c r="F75" t="s">
-        <v>326</v>
+        <v>330</v>
       </c>
     </row>
     <row r="76" spans="1:6">
@@ -2914,13 +2929,13 @@
         <v>170</v>
       </c>
       <c r="D76" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="E76" t="s">
-        <v>251</v>
+        <v>255</v>
       </c>
       <c r="F76" t="s">
-        <v>327</v>
+        <v>331</v>
       </c>
     </row>
     <row r="77" spans="1:6">
@@ -2934,13 +2949,13 @@
         <v>171</v>
       </c>
       <c r="D77" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="E77" t="s">
-        <v>251</v>
+        <v>255</v>
       </c>
       <c r="F77" t="s">
-        <v>328</v>
+        <v>332</v>
       </c>
     </row>
     <row r="78" spans="1:6">
@@ -2954,13 +2969,13 @@
         <v>172</v>
       </c>
       <c r="D78" t="s">
-        <v>242</v>
+        <v>250</v>
       </c>
       <c r="E78" t="s">
-        <v>251</v>
+        <v>255</v>
       </c>
       <c r="F78" t="s">
-        <v>329</v>
+        <v>333</v>
       </c>
     </row>
     <row r="79" spans="1:6">
@@ -2974,13 +2989,13 @@
         <v>173</v>
       </c>
       <c r="D79" t="s">
-        <v>248</v>
+        <v>251</v>
       </c>
       <c r="E79" t="s">
-        <v>251</v>
+        <v>255</v>
       </c>
       <c r="F79" t="s">
-        <v>330</v>
+        <v>334</v>
       </c>
     </row>
     <row r="80" spans="1:6">
@@ -2993,11 +3008,14 @@
       <c r="C80" t="s">
         <v>174</v>
       </c>
+      <c r="D80" t="s">
+        <v>225</v>
+      </c>
       <c r="E80" t="s">
-        <v>251</v>
+        <v>255</v>
       </c>
       <c r="F80" t="s">
-        <v>331</v>
+        <v>335</v>
       </c>
     </row>
     <row r="81" spans="1:6">
@@ -3014,10 +3032,10 @@
         <v>199</v>
       </c>
       <c r="E81" t="s">
-        <v>251</v>
+        <v>255</v>
       </c>
       <c r="F81" t="s">
-        <v>332</v>
+        <v>336</v>
       </c>
     </row>
     <row r="82" spans="1:6">
@@ -3031,13 +3049,13 @@
         <v>176</v>
       </c>
       <c r="D82" t="s">
-        <v>249</v>
+        <v>252</v>
       </c>
       <c r="E82" t="s">
-        <v>251</v>
+        <v>255</v>
       </c>
       <c r="F82" t="s">
-        <v>333</v>
+        <v>337</v>
       </c>
     </row>
     <row r="83" spans="1:6">
@@ -3051,13 +3069,13 @@
         <v>177</v>
       </c>
       <c r="D83" t="s">
-        <v>250</v>
+        <v>253</v>
       </c>
       <c r="E83" t="s">
-        <v>251</v>
+        <v>255</v>
       </c>
       <c r="F83" t="s">
-        <v>334</v>
+        <v>338</v>
       </c>
     </row>
     <row r="84" spans="1:6">
@@ -3071,13 +3089,13 @@
         <v>178</v>
       </c>
       <c r="D84" t="s">
-        <v>217</v>
+        <v>254</v>
       </c>
       <c r="E84" t="s">
-        <v>252</v>
+        <v>256</v>
       </c>
       <c r="F84" t="s">
-        <v>335</v>
+        <v>339</v>
       </c>
     </row>
     <row r="85" spans="1:6">
@@ -3094,10 +3112,10 @@
         <v>203</v>
       </c>
       <c r="E85" t="s">
-        <v>251</v>
+        <v>255</v>
       </c>
       <c r="F85" t="s">
-        <v>336</v>
+        <v>340</v>
       </c>
     </row>
     <row r="86" spans="1:6">
@@ -3110,11 +3128,14 @@
       <c r="C86" t="s">
         <v>180</v>
       </c>
+      <c r="D86" t="s">
+        <v>224</v>
+      </c>
       <c r="E86" t="s">
-        <v>251</v>
+        <v>255</v>
       </c>
       <c r="F86" t="s">
-        <v>337</v>
+        <v>341</v>
       </c>
     </row>
     <row r="87" spans="1:6">
@@ -3131,10 +3152,10 @@
         <v>199</v>
       </c>
       <c r="E87" t="s">
-        <v>251</v>
+        <v>255</v>
       </c>
       <c r="F87" t="s">
-        <v>338</v>
+        <v>342</v>
       </c>
     </row>
     <row r="88" spans="1:6">
@@ -3151,10 +3172,10 @@
         <v>189</v>
       </c>
       <c r="E88" t="s">
-        <v>251</v>
+        <v>255</v>
       </c>
       <c r="F88" t="s">
-        <v>339</v>
+        <v>343</v>
       </c>
     </row>
     <row r="89" spans="1:6">
@@ -3171,10 +3192,10 @@
         <v>199</v>
       </c>
       <c r="E89" t="s">
-        <v>251</v>
+        <v>255</v>
       </c>
       <c r="F89" t="s">
-        <v>340</v>
+        <v>344</v>
       </c>
     </row>
     <row r="90" spans="1:6">
@@ -3191,10 +3212,10 @@
         <v>203</v>
       </c>
       <c r="E90" t="s">
-        <v>251</v>
+        <v>255</v>
       </c>
       <c r="F90" t="s">
-        <v>341</v>
+        <v>345</v>
       </c>
     </row>
     <row r="91" spans="1:6">
@@ -3207,11 +3228,14 @@
       <c r="C91" t="s">
         <v>185</v>
       </c>
+      <c r="D91" t="s">
+        <v>225</v>
+      </c>
       <c r="E91" t="s">
-        <v>251</v>
+        <v>255</v>
       </c>
       <c r="F91" t="s">
-        <v>342</v>
+        <v>346</v>
       </c>
     </row>
     <row r="92" spans="1:6">
@@ -3225,13 +3249,13 @@
         <v>186</v>
       </c>
       <c r="D92" t="s">
-        <v>198</v>
+        <v>240</v>
       </c>
       <c r="E92" t="s">
-        <v>251</v>
+        <v>255</v>
       </c>
       <c r="F92" t="s">
-        <v>343</v>
+        <v>347</v>
       </c>
     </row>
   </sheetData>
